--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/17_Bingöl_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/17_Bingöl_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15608945-AEA3-45E4-87B5-27510E9EBAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A2D4C91-97BA-4C91-AF39-00ED70167E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{ADEBC7FF-E789-4B70-BDFB-C6064E518E18}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{A8A0A373-94C9-4177-8CEF-36EF3CDE8C62}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{E6FE7A9A-A608-4B9C-B2E9-701EC4A79895}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{686C45EC-73A2-499C-8F64-F915D9711935}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{D47BB087-0BCC-436D-B750-196795044BB9}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{DFA31800-9F2C-4294-B42D-E5E7D81B95D6}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{D577D239-9EBE-4420-B691-90F124B7B324}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{A6019711-7270-41AE-88A6-4F9CE1FAFC06}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{2065380D-2783-4058-AF59-46294352A967}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{2D524E2F-9475-4221-96B5-E685455E7D8D}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{CC360471-86CD-4EA2-B7F3-93380B42304A}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{CFF2EC12-8BD8-4A29-ADEB-C032BE828CF9}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{4E9EF71A-D4CA-4A73-B0C3-0B015ED4B852}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{DCB5973E-BBCF-49E4-9425-583E35BE077C}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{E5DE6A06-FB2A-4DFD-8342-84270B13399F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{413B0D44-6D14-463E-9F06-DB5304690FE9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAC40BC-4313-429E-A725-06CDCDE8C82D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF0030F-F7A3-49DF-BC05-71A79A93D834}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2515,7 +2515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E419E03D-7F4D-419F-A6BA-F6DC3CEACC8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FA1552-8316-446A-A3A8-4345B3252207}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3706,7 +3706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C70B0EC-6742-4C7B-8EBA-9079A5AE7379}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508DDC63-8B9E-429D-AD91-40234531B267}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4889,7 +4889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413CCAB5-1CD5-40CA-A9E5-270A267F16F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B5B72F-2B3E-4420-BB5E-D8CBA6EB80C2}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6068,7 +6068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7F54B2-3648-411C-8231-2ADA30F3C479}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60769CF5-9626-4B13-9207-BB407F7E0B69}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7295,7 +7295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A344FE40-AA1A-48FC-88C5-1CB9BD0B35CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B83072-F892-443D-BF52-9FC8AC8306DC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8522,7 +8522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A0B63C-3284-4E8A-9624-37DF896DF08A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B27F774-5402-49A8-9981-C304A074A4A9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9749,7 +9749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028F7FEE-E31D-4D49-B44D-AC9415444401}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B676D004-3551-4905-94EF-A3EE6B803460}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10976,7 +10976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C5AE24-F37D-4E20-A10C-7009C5E0395E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBB2DE5-5205-4672-8127-8107BC96F064}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12203,7 +12203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BADBA9-BE46-4085-89E8-D7404DB5A3EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53D00C3-6826-4DBC-9C4C-323942AFE32A}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13416,7 +13416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE4BB41-621E-48FA-8F7F-15F198004F2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D17806A-915B-4231-A1DB-B0F406F131D3}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14629,7 +14629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBA8F26-7BCC-42AE-A6AC-EF07B7141370}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8ACAA74-4813-499A-A79F-70E6B905580D}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
